--- a/ucinet/0320 作業/黑獸公會成員友好度調查 -1.xlsx
+++ b/ucinet/0320 作業/黑獸公會成員友好度調查 -1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\Social-Network-Analysis\ucinet\0320 作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Users\user\Desktop\Social-Network-Analysis\ucinet\0320 作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{197C3230-EE1C-42BE-A19B-57F7082EAD39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19082ADC-36E9-455D-A468-DBB16C7981CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{30EE4761-7A5F-403D-9D14-0BFDDCB3507B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{30EE4761-7A5F-403D-9D14-0BFDDCB3507B}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -44,126 +44,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="40">
-  <si>
-    <t>時間戳記</t>
-  </si>
-  <si>
-    <t>性別</t>
-  </si>
-  <si>
-    <t>年齡</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="7">
   <si>
     <t>你喜歡跟誰合作？</t>
-  </si>
-  <si>
-    <t>為甚麼？</t>
-  </si>
-  <si>
-    <t>2023/3/20 下午 2:44:46</t>
-  </si>
-  <si>
-    <t>生理男</t>
-  </si>
-  <si>
-    <t>30~39歲</t>
   </si>
   <si>
     <t>莉絲雅</t>
   </si>
   <si>
-    <t>很常願意跟我組隊打團體戰</t>
-  </si>
-  <si>
-    <t>2023/3/20 下午 2:45:05</t>
-  </si>
-  <si>
-    <t>生理女</t>
-  </si>
-  <si>
-    <t>40~49歲</t>
-  </si>
-  <si>
-    <t>2023/3/20 下午 2:45:25</t>
-  </si>
-  <si>
-    <t>20歲以下</t>
-  </si>
-  <si>
     <t>腿庫飯</t>
-  </si>
-  <si>
-    <t>很常提供遊戲攻略密技給我</t>
-  </si>
-  <si>
-    <t>2023/3/20 下午 2:46:00</t>
   </si>
   <si>
     <t>拉克</t>
   </si>
   <si>
-    <t>很常捐獻物資給我</t>
-  </si>
-  <si>
-    <t>2023/3/20 下午 2:46:16</t>
-  </si>
-  <si>
-    <t>2023/3/20 下午 2:47:06</t>
-  </si>
-  <si>
     <t>墨染</t>
-  </si>
-  <si>
-    <t>2023/3/20 下午 2:47:21</t>
   </si>
   <si>
     <t>正取四</t>
   </si>
   <si>
-    <t>2023/3/20 下午 2:47:35</t>
-  </si>
-  <si>
-    <t>2023/3/20 下午 2:47:45</t>
-  </si>
-  <si>
-    <t>2023/3/20 下午 2:48:16</t>
-  </si>
-  <si>
-    <t>20(含)~29歲</t>
-  </si>
-  <si>
-    <t>2023/3/20 下午 2:48:25</t>
-  </si>
-  <si>
-    <t>2023/3/20 下午 2:48:36</t>
-  </si>
-  <si>
     <t>哈哈哈</t>
-  </si>
-  <si>
-    <t>2023/3/20 下午 2:48:50</t>
-  </si>
-  <si>
-    <t>2023/3/20 下午 2:49:45</t>
-  </si>
-  <si>
-    <t>2023/3/20 下午 2:49:55</t>
-  </si>
-  <si>
-    <t>2023/3/20 下午 2:50:04</t>
-  </si>
-  <si>
-    <t>2023/3/20 下午 2:50:18</t>
-  </si>
-  <si>
-    <t>2023/3/20 下午 2:50:45</t>
-  </si>
-  <si>
-    <t>2023/3/20 下午 2:51:00</t>
-  </si>
-  <si>
-    <t>2023/3/20 下午 2:51:14</t>
   </si>
 </sst>
 </file>
@@ -531,378 +432,188 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F09E9144-4EC3-44E2-8A5F-8D7FDCC43C0C}">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="27.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8">
         <v>7</v>
       </c>
-      <c r="D2" t="s">
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9">
         <v>8</v>
       </c>
-      <c r="E2" t="s">
+      <c r="B9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="B10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11">
         <v>10</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B11" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12">
         <v>11</v>
       </c>
-      <c r="C3" t="s">
+      <c r="B12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13">
         <v>12</v>
-      </c>
-      <c r="D3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>25</v>
-      </c>
-      <c r="B9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" t="s">
-        <v>15</v>
-      </c>
-      <c r="E9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>26</v>
-      </c>
-      <c r="B10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>27</v>
-      </c>
-      <c r="B11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" t="s">
-        <v>28</v>
-      </c>
-      <c r="D11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>29</v>
-      </c>
-      <c r="B12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" t="s">
-        <v>7</v>
-      </c>
-      <c r="D12" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>30</v>
       </c>
       <c r="B13" t="s">
         <v>6</v>
       </c>
-      <c r="C13" t="s">
-        <v>7</v>
-      </c>
-      <c r="D13" t="s">
-        <v>31</v>
-      </c>
-      <c r="E13" t="s">
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20">
         <v>19</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>32</v>
-      </c>
-      <c r="B14" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14" t="s">
-        <v>12</v>
-      </c>
-      <c r="D14" t="s">
-        <v>15</v>
-      </c>
-      <c r="E14" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>33</v>
-      </c>
-      <c r="B15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C15" t="s">
-        <v>12</v>
-      </c>
-      <c r="D15" t="s">
-        <v>8</v>
-      </c>
-      <c r="E15" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>34</v>
-      </c>
-      <c r="B16" t="s">
-        <v>6</v>
-      </c>
-      <c r="C16" t="s">
-        <v>7</v>
-      </c>
-      <c r="D16" t="s">
-        <v>8</v>
-      </c>
-      <c r="E16" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>35</v>
-      </c>
-      <c r="B17" t="s">
-        <v>6</v>
-      </c>
-      <c r="C17" t="s">
-        <v>7</v>
-      </c>
-      <c r="D17" t="s">
-        <v>8</v>
-      </c>
-      <c r="E17" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>36</v>
-      </c>
-      <c r="B18" t="s">
-        <v>6</v>
-      </c>
-      <c r="C18" t="s">
-        <v>7</v>
-      </c>
-      <c r="D18" t="s">
-        <v>8</v>
-      </c>
-      <c r="E18" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>37</v>
-      </c>
-      <c r="B19" t="s">
-        <v>6</v>
-      </c>
-      <c r="C19" t="s">
-        <v>7</v>
-      </c>
-      <c r="D19" t="s">
-        <v>15</v>
-      </c>
-      <c r="E19" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>38</v>
-      </c>
       <c r="B20" t="s">
-        <v>6</v>
-      </c>
-      <c r="C20" t="s">
-        <v>7</v>
-      </c>
-      <c r="D20" t="s">
-        <v>18</v>
-      </c>
-      <c r="E20" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>39</v>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>6</v>
-      </c>
-      <c r="C21" t="s">
-        <v>7</v>
-      </c>
-      <c r="D21" t="s">
-        <v>8</v>
-      </c>
-      <c r="E21" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>